--- a/src/test/resources/TestDriver/TestSBO_Replay_M2/ReferenceData/RefData_SBO_EVENTS.xlsx
+++ b/src/test/resources/TestDriver/TestSBO_Replay_M2/ReferenceData/RefData_SBO_EVENTS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M1\ReferenceData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO_Replay_M2\ReferenceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADB14AB-CC0C-4BEC-AC46-D7F6CB434F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA0551-84C1-4F3F-A320-784FAEC94523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -779,8 +779,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -861,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -1087,7 +1087,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
